--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BroadcastSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingframin/BroadcastSimulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47734252-2C26-354D-98AB-9B144CADDF4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -461,27 +470,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -509,7 +518,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>60</v>
       </c>
@@ -523,23 +532,23 @@
         <v>0.97297297297297303</v>
       </c>
       <c r="G2" s="8">
-        <f>C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <f t="shared" ref="G2:G10" si="0">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
         <v>9.9999999999999922E-2</v>
       </c>
       <c r="H2" s="8">
-        <f>D2*$A$6/(E2*$A$2+D2*$A$4+D2*$A$6)</f>
+        <f t="shared" ref="H2:H10" si="1">D2*$A$6/(E2*$A$2+D2*$A$4+D2*$A$6)</f>
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <f>E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <f t="shared" ref="I2:I10" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
         <v>0.90000000000000013</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="0">SUM(G2:I2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K2:K10" si="3">SUM(G2:I2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -553,23 +562,23 @@
         <v>0.94117647058823495</v>
       </c>
       <c r="G3" s="8">
-        <f>C3*$A$2/(C3*$A$2+E3*$A$4+D3*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.20000000000000087</v>
       </c>
       <c r="H3" s="8">
-        <f>D3*$A$6/(E3*$A$2+D3*$A$4+D3*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f>E3*$A$4/(C3*$A$2+E3*$A$4+D3*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999916</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -583,23 +592,23 @@
         <v>0.90322580645161299</v>
       </c>
       <c r="G4" s="8">
-        <f>C4*$A$2/(C4*$A$2+E4*$A$4+D4*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.29999999999999971</v>
       </c>
       <c r="H4" s="8">
-        <f>D4*$A$6/(E4*$A$2+D4*$A$4+D4*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <f>E4*$A$4/(C4*$A$2+E4*$A$4+D4*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -613,23 +622,23 @@
         <v>0.85714285714285698</v>
       </c>
       <c r="G5" s="8">
-        <f>C5*$A$2/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.4000000000000003</v>
       </c>
       <c r="H5" s="8">
-        <f>D5*$A$6/(E5*$A$2+D5*$A$4+D5*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <f>E5*$A$4/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.59999999999999976</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -644,23 +653,23 @@
         <v>0.8</v>
       </c>
       <c r="G6" s="8">
-        <f>C6*$A$2/(C6*$A$2+E6*$A$4+D6*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="H6" s="8">
-        <f>D6*$A$6/(E6*$A$2+D6*$A$4+D6*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <f>E6*$A$4/(C6*$A$2+E6*$A$4+D6*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>0.27272727272727298</v>
       </c>
@@ -671,23 +680,23 @@
         <v>0.72727272727272696</v>
       </c>
       <c r="G7" s="8">
-        <f>C7*$A$2/(C7*$A$2+E7*$A$4+D7*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000031</v>
       </c>
       <c r="H7" s="8">
-        <f>D7*$A$6/(E7*$A$2+D7*$A$4+D7*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f>E7*$A$4/(C7*$A$2+E7*$A$4+D7*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.39999999999999974</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>0.36842105263157898</v>
       </c>
@@ -698,23 +707,23 @@
         <v>0.63157894736842102</v>
       </c>
       <c r="G8" s="8">
-        <f>C8*$A$2/(C8*$A$2+E8*$A$4+D8*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="H8" s="8">
-        <f>D8*$A$6/(E8*$A$2+D8*$A$4+D8*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <f>E8*$A$4/(C8*$A$2+E8*$A$4+D8*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.29999999999999993</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>0.5</v>
       </c>
@@ -726,23 +735,23 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="8">
-        <f>C9*$A$2/(C9*$A$2+E9*$A$4+D9*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="H9" s="8">
-        <f>D9*$A$6/(E9*$A$2+D9*$A$4+D9*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <f>E9*$A$4/(C9*$A$2+E9*$A$4+D9*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="8">
         <v>0.69230769230769196</v>
       </c>
@@ -753,23 +762,23 @@
         <v>0.30769230769230799</v>
       </c>
       <c r="G10" s="8">
-        <f>C10*$A$2/(C10*$A$2+E10*$A$4+D10*$A$6)</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="H10" s="8">
-        <f>D10*$A$6/(E10*$A$2+D10*$A$4+D10*$A$6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <f>E10*$A$4/(C10*$A$2+E10*$A$4+D10*$A$6)</f>
+        <f t="shared" si="2"/>
         <v>0.10000000000000012</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -778,7 +787,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="8">
         <v>2.8328611898017001E-2</v>
       </c>
@@ -805,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>6.1919504643963001E-2</v>
       </c>
@@ -816,15 +825,15 @@
         <v>0.92879256965944301</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" ref="G13:G16" si="1">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <f t="shared" ref="G13:G16" si="4">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
         <v>0.20000000000000079</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ref="H13:H16" si="2">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <f t="shared" ref="H13:H16" si="5">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
         <v>4.9999999999997775E-2</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" ref="I13:I16" si="3">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <f t="shared" ref="I13:I16" si="6">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
         <v>0.75000000000000133</v>
       </c>
       <c r="K13">
@@ -832,7 +841,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="8">
         <v>0.102389078498294</v>
       </c>
@@ -843,15 +852,15 @@
         <v>0.88737201365187701</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.30000000000000154</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999998303E-2</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="K14">
@@ -859,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>0.15209125475285201</v>
       </c>
@@ -870,15 +879,15 @@
         <v>0.83650190114068401</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000482E-2</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.54999999999999916</v>
       </c>
       <c r="K15">
@@ -886,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" s="8">
         <v>0.21459227467811201</v>
       </c>
@@ -897,15 +906,15 @@
         <v>0.77253218884120201</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000001064E-2</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.44999999999999907</v>
       </c>
       <c r="K16">
@@ -913,7 +922,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>0.25229357798165097</v>
       </c>
@@ -924,23 +933,23 @@
         <v>0.73394495412843996</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" ref="G17:G20" si="4">C17*$A$2/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
+        <f t="shared" ref="G17:G20" si="7">C17*$A$2/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
         <v>0.55000000000000027</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" ref="H17:H20" si="5">D17*$A$6/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
+        <f t="shared" ref="H17:H20" si="8">D17*$A$6/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
         <v>4.9999999999999163E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" ref="I17:I20" si="6">E17*$A$4/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
+        <f t="shared" ref="I17:I20" si="9">E17*$A$4/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
         <v>0.40000000000000063</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K20" si="7">SUM(G17:I17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K17:K20" si="10">SUM(G17:I17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" s="8">
         <v>0.34574468085106402</v>
       </c>
@@ -951,23 +960,23 @@
         <v>0.63829787234042601</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.64999999999999925</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000001057E-2</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.29999999999999971</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>0.474683544303797</v>
       </c>
@@ -978,23 +987,23 @@
         <v>0.506329113924051</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.74999999999999944</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.000000000000028E-2</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20000000000000021</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="8">
         <v>0.6640625</v>
       </c>
@@ -1005,19 +1014,19 @@
         <v>0.3125</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.85</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingframin/BroadcastSimulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BroadcastSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47734252-2C26-354D-98AB-9B144CADDF4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -470,27 +469,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -518,7 +517,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
@@ -548,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -578,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -608,7 +607,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -638,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
@@ -669,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>0.27272727272727298</v>
       </c>
@@ -696,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="8">
         <v>0.36842105263157898</v>
       </c>
@@ -723,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="8">
         <v>0.5</v>
       </c>
@@ -751,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="8">
         <v>0.69230769230769196</v>
       </c>
@@ -778,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -787,7 +786,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="8">
         <v>2.8328611898017001E-2</v>
       </c>
@@ -814,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="8">
         <v>6.1919504643963001E-2</v>
       </c>
@@ -841,7 +840,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="8">
         <v>0.102389078498294</v>
       </c>
@@ -868,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="8">
         <v>0.15209125475285201</v>
       </c>
@@ -895,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="8">
         <v>0.21459227467811201</v>
       </c>
@@ -922,7 +921,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="8">
         <v>0.25229357798165097</v>
       </c>
@@ -949,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="8">
         <v>0.34574468085106402</v>
       </c>
@@ -976,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="8">
         <v>0.474683544303797</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="8">
         <v>0.6640625</v>
       </c>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -65,8 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -174,7 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -187,6 +188,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
@@ -473,7 +475,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,18 +523,19 @@
       <c r="A2">
         <v>60</v>
       </c>
-      <c r="C2" s="8">
-        <v>2.7027027027027001E-2</v>
+      <c r="C2" s="12">
+        <v>3.3989266547406E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
-        <v>0.97297297297297303</v>
+      <c r="E2" s="12">
+        <f>1-C2</f>
+        <v>0.96601073345259403</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G10" si="0">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>9.9999999999999922E-2</v>
+        <v>9.999999999999977E-2</v>
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2:H10" si="1">D2*$A$6/(E2*$A$2+D2*$A$4+D2*$A$6)</f>
@@ -540,7 +543,7 @@
       </c>
       <c r="I2" s="8">
         <f t="shared" ref="I2:I10" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.90000000000000013</v>
+        <v>0.90000000000000024</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K10" si="3">SUM(G2:I2)</f>
@@ -551,18 +554,19 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
-        <v>5.8823529411765003E-2</v>
+      <c r="C3" s="12">
+        <v>7.3359073359073004E-2</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
-        <v>0.94117647058823495</v>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E10" si="4">1-C3</f>
+        <v>0.92664092664092701</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="0"/>
-        <v>0.20000000000000087</v>
+        <v>0.19999999999999915</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" si="1"/>
@@ -570,7 +574,7 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" si="2"/>
-        <v>0.79999999999999916</v>
+        <v>0.80000000000000082</v>
       </c>
       <c r="K3">
         <f t="shared" si="3"/>
@@ -579,20 +583,21 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>9.6774193548386997E-2</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.11949685534591201</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.90322580645161299</v>
+      <c r="E4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.88050314465408797</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>0.29999999999999971</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="1"/>
@@ -600,29 +605,30 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="2"/>
-        <v>0.70000000000000018</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.14285714285714299</v>
+      <c r="C5" s="12">
+        <v>0.17431192660550501</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.85714285714285698</v>
+      <c r="E5" s="12">
+        <f t="shared" si="4"/>
+        <v>0.82568807339449501</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0.4000000000000003</v>
+        <v>0.40000000000000069</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
@@ -630,7 +636,7 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>0.59999999999999976</v>
+        <v>0.59999999999999931</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
@@ -641,19 +647,19 @@
       <c r="A6">
         <v>100</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <f>1-C6</f>
-        <v>0.8</v>
+      <c r="C6" s="12">
+        <v>0.240506329113924</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="4"/>
+        <v>0.759493670886076</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="1"/>
@@ -661,7 +667,7 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -669,14 +675,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
-        <v>0.27272727272727298</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.72727272727272696</v>
+      <c r="C7" s="12">
+        <v>0.322033898305085</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="4"/>
+        <v>0.677966101694915</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
@@ -696,18 +703,19 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="8">
-        <v>0.36842105263157898</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.63157894736842102</v>
+      <c r="C8" s="12">
+        <v>0.42492012779552701</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="4"/>
+        <v>0.57507987220447299</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>0.69999999999999984</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
@@ -715,7 +723,7 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="2"/>
-        <v>0.29999999999999993</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -723,19 +731,19 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <f>1-C9</f>
-        <v>0.5</v>
+      <c r="C9" s="12">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="4"/>
+        <v>0.44117647058823495</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
@@ -743,7 +751,7 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.19999999999999976</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -751,18 +759,19 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="8">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.30769230769230799</v>
+      <c r="C10" s="12">
+        <v>0.74025974025973995</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="4"/>
+        <v>0.25974025974026005</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
@@ -770,11 +779,11 @@
       </c>
       <c r="I10" s="8">
         <f t="shared" si="2"/>
-        <v>0.10000000000000012</v>
+        <v>0.10000000000000013</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -787,80 +796,80 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
-        <v>2.8328611898017001E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>8.4985835694049994E-3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.96317280453257803</v>
+      <c r="C12" s="12">
+        <v>1.7110951008646E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1.0266570605187E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.972622478386167</v>
       </c>
       <c r="G12" s="8">
         <f>C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.10000000000000006</v>
+        <v>5.000000000000137E-2</v>
       </c>
       <c r="H12" s="8">
         <f>D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>4.9999999999999434E-2</v>
+        <v>4.9999999999998448E-2</v>
       </c>
       <c r="I12" s="8">
         <f>E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.85000000000000053</v>
+        <v>0.9</v>
       </c>
       <c r="K12">
         <f>SUM(G12:I12)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="8">
-        <v>6.1919504643963001E-2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>9.2879256965940002E-3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.92879256965944301</v>
+      <c r="C13" s="12">
+        <v>5.5425904317385997E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1.1085180863477E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.93348891481913698</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" ref="G13:G16" si="4">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.20000000000000079</v>
+        <f t="shared" ref="G13:G15" si="5">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.14999999999999958</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ref="H13:H16" si="5">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>4.9999999999997775E-2</v>
+        <f t="shared" ref="H13:H15" si="6">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>4.9999999999998962E-2</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" ref="I13:I16" si="6">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.75000000000000133</v>
+        <f t="shared" ref="I13:I15" si="7">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.80000000000000149</v>
       </c>
       <c r="K13">
         <f>SUM(G13:I13)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="8">
-        <v>0.102389078498294</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1.0238907849829001E-2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.88737201365187701</v>
+      <c r="C14" s="12">
+        <v>0.100380388841927</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1.2045646661030999E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.88757396449704096</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="4"/>
-        <v>0.30000000000000154</v>
+        <f t="shared" si="5"/>
+        <v>0.24999999999999981</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="5"/>
-        <v>4.9999999999998303E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999998969E-2</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="6"/>
-        <v>0.65000000000000013</v>
+        <f t="shared" si="7"/>
+        <v>0.70000000000000118</v>
       </c>
       <c r="K14">
         <f>SUM(G14:I14)</f>
@@ -868,26 +877,26 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="8">
-        <v>0.15209125475285201</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1.1406844106464E-2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.83650190114068401</v>
+      <c r="C15" s="12">
+        <v>0.15386395187413199</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.3188338732068001E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.83294770939379903</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="4"/>
-        <v>0.40000000000000036</v>
+        <f t="shared" si="5"/>
+        <v>0.3500000000000002</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="5"/>
-        <v>5.0000000000000482E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.9999999999998296E-2</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="6"/>
-        <v>0.54999999999999916</v>
+        <f t="shared" si="7"/>
+        <v>0.60000000000000153</v>
       </c>
       <c r="K15">
         <f>SUM(G15:I15)</f>
@@ -895,26 +904,26 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="8">
-        <v>0.21459227467811201</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1.2875536480687001E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.77253218884120201</v>
+      <c r="C16" s="12">
+        <v>0.218558282208589</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1.4570552147238999E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.76687116564417201</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="4"/>
-        <v>0.49999999999999978</v>
+        <f>C16*$A$2/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>0.45000000000000034</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="5"/>
-        <v>5.0000000000001064E-2</v>
+        <f>D16*$A$6/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>4.9999999999999128E-2</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="6"/>
-        <v>0.44999999999999907</v>
+        <f>E16*$A$4/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>0.50000000000000044</v>
       </c>
       <c r="K16">
         <f>SUM(G16:I16)</f>
@@ -922,110 +931,110 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="8">
-        <v>0.25229357798165097</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1.3761467889907999E-2</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.73394495412843996</v>
+      <c r="C17" s="12">
+        <v>0.29840091376356398</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.6276413478013001E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.68532267275842396</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" ref="G17:G20" si="7">C17*$A$2/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
-        <v>0.55000000000000027</v>
+        <f>C17*$A$2/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
+        <v>0.54999999999999938</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" ref="H17:H20" si="8">D17*$A$6/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
-        <v>4.9999999999999163E-2</v>
+        <f>D17*$A$6/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
+        <v>5.0000000000001245E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" ref="I17:I20" si="9">E17*$A$4/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
-        <v>0.40000000000000063</v>
+        <f>E17*$A$4/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
+        <v>0.3999999999999993</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K20" si="10">SUM(G17:I17)</f>
+        <f t="shared" ref="K17:K20" si="8">SUM(G17:I17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="8">
-        <v>0.34574468085106402</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1.5957446808511001E-2</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.63829787234042601</v>
+      <c r="C18" s="12">
+        <v>0.39941785252263901</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1.8434670116428999E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.58214747736093198</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="7"/>
-        <v>0.64999999999999925</v>
+        <f>C18*$A$2/(C18*$A$2+E18*$A$4+D18*$A$6)</f>
+        <v>0.65000000000000069</v>
       </c>
       <c r="H18" s="8">
+        <f>D18*$A$6/(C18*$A$2+E18*$A$4+D18*$A$6)</f>
+        <v>4.9999999999998719E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <f>E18*$A$4/(C18*$A$2+E18*$A$4+D18*$A$6)</f>
+        <v>0.30000000000000066</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="8"/>
-        <v>5.0000000000001057E-2</v>
-      </c>
-      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
+        <v>0.53131991051454097</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2.1252796420582001E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.447427293064877</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" ref="G19:G20" si="9">C19*$A$2/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
+        <v>0.74999999999999922</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" ref="H19:H20" si="10">D19*$A$6/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
+        <v>5.0000000000000794E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" ref="I19:I20" si="11">E19*$A$4/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="12">
+        <v>0.71082746478873204</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2.5088028169013999E-2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.264084507042254</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="9"/>
-        <v>0.29999999999999971</v>
-      </c>
-      <c r="K18">
+        <v>0.85</v>
+      </c>
+      <c r="H20" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="8">
-        <v>0.474683544303797</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1.8987341772152E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.506329113924051</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="7"/>
-        <v>0.74999999999999944</v>
-      </c>
-      <c r="H19" s="8">
+        <v>4.9999999999999857E-2</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="11"/>
+        <v>0.10000000000000023</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="8"/>
-        <v>5.000000000000028E-2</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="9"/>
-        <v>0.20000000000000021</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="10"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="8">
-        <v>0.6640625</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.3125</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="7"/>
-        <v>0.85</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -67,7 +67,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Sm</t>
   </si>
@@ -60,6 +60,9 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>Ps*Pb</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +117,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +159,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -169,13 +189,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -189,10 +210,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -472,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
@@ -491,7 +518,7 @@
     <col min="10" max="10" width="4.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -516,277 +543,315 @@
         <v>7</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="C2" s="12">
-        <v>3.3989266547406E-2</v>
+        <v>4.0852575488455001E-2</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="12">
-        <f>1-C2</f>
-        <v>0.96601073345259403</v>
+        <f t="shared" ref="E2:E5" si="0">1-C2</f>
+        <v>0.959147424511545</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G10" si="0">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>9.999999999999977E-2</v>
+        <f t="shared" ref="G2:G5" si="1">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <v>0.10000000000000067</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:H10" si="1">D2*$A$6/(E2*$A$2+D2*$A$4+D2*$A$6)</f>
+        <f t="shared" ref="H2:H10" si="2">D2*$A$6/(E2*$A$2+D2*$A$4+D2*$A$6)</f>
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <f t="shared" ref="I2:I10" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.90000000000000024</v>
+        <f t="shared" ref="I2:I5" si="3">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <v>0.89999999999999936</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="3">SUM(G2:I2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K2:K10" si="4">SUM(G2:I2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>G2*I2</f>
+        <v>9.0000000000000538E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12">
-        <v>7.3359073359073004E-2</v>
+        <v>8.7452471482889996E-2</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E10" si="4">1-C3</f>
-        <v>0.92664092664092701</v>
+        <f t="shared" si="0"/>
+        <v>0.91254752851710996</v>
       </c>
       <c r="G3" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000054</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999949</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="5">G3*I3</f>
+        <v>0.16000000000000034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.14110429447852799</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
-        <v>0.19999999999999915</v>
-      </c>
-      <c r="H3" s="8">
+        <v>0.85889570552147199</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+        <v>0.30000000000000066</v>
+      </c>
+      <c r="H4" s="8">
         <f t="shared" si="2"/>
-        <v>0.80000000000000082</v>
-      </c>
-      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>19</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.11949685534591201</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+        <v>0.6999999999999994</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.88050314465408797</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="2"/>
-        <v>0.69999999999999984</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0.21000000000000027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12">
-        <v>0.17431192660550501</v>
+        <v>0.20353982300885001</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.79646017699115002</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000063</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="3"/>
+        <v>0.59999999999999931</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.82568807339449501</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.40000000000000069</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.59999999999999931</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0.2400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="C6" s="12">
-        <v>0.240506329113924</v>
+        <v>0.27710843373493999</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
       </c>
       <c r="E6" s="12">
+        <f>1-C6</f>
+        <v>0.72289156626506001</v>
+      </c>
+      <c r="G6" s="8">
+        <f>C6*$A$2/(C6*$A$2+E6*$A$4+D6*$A$6)</f>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>E6*$A$4/(C6*$A$2+E6*$A$4+D6*$A$6)</f>
+        <v>0.49999999999999967</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.759493670886076</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" s="12">
+        <v>0.365079365079365</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f>1-C7</f>
+        <v>0.634920634920635</v>
+      </c>
+      <c r="G7" s="8">
+        <f>C7*$A$2/(C7*$A$2+E7*$A$4+D7*$A$6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="8">
         <f t="shared" si="2"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="12">
-        <v>0.322033898305085</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>E7*$A$4/(C7*$A$2+E7*$A$4+D7*$A$6)</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>0.677966101694915</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000031</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.24000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" s="12">
+        <v>0.47214076246334302</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <f>1-C8</f>
+        <v>0.52785923753665698</v>
+      </c>
+      <c r="G8" s="8">
+        <f>C8*$A$2/(C8*$A$2+E8*$A$4+D8*$A$6)</f>
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="8">
         <f t="shared" si="2"/>
-        <v>0.39999999999999974</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="12">
-        <v>0.42492012779552701</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <f>E8*$A$4/(C8*$A$2+E8*$A$4+D8*$A$6)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.57507987220447299</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.69999999999999984</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" s="12">
+        <v>0.60526315789473695</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <f>1-C9</f>
+        <v>0.39473684210526305</v>
+      </c>
+      <c r="G9" s="8">
+        <f>C9*$A$2/(C9*$A$2+E9*$A$4+D9*$A$6)</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="2"/>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="12">
-        <v>0.55882352941176505</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <f>E9*$A$4/(C9*$A$2+E9*$A$4+D9*$A$6)</f>
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>0.44117647058823495</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.15999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10" s="12">
+        <v>0.77528089887640494</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <f>1-C10</f>
+        <v>0.22471910112359506</v>
+      </c>
+      <c r="G10" s="8">
+        <f>C10*$A$2/(C10*$A$2+E10*$A$4+D10*$A$6)</f>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="H10" s="8">
         <f t="shared" si="2"/>
-        <v>0.19999999999999976</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
-        <v>0.74025974025973995</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <f>E10*$A$4/(C10*$A$2+E10*$A$4+D10*$A$6)</f>
+        <v>9.999999999999977E-2</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>0.25974025974026005</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8999999999999998</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.10000000000000013</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>8.9999999999999816E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -795,246 +860,317 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
-        <v>1.7110951008646E-2</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1.0266570605187E-2</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.972622478386167</v>
+    <row r="12" spans="1:13">
+      <c r="C12" s="15">
+        <v>4.4504643962847999E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2.6702786377708999E-2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.92879256965944301</v>
       </c>
       <c r="G12" s="8">
         <f>C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>5.000000000000137E-2</v>
+        <v>9.9999999999999367E-2</v>
       </c>
       <c r="H12" s="8">
         <f>D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>4.9999999999998448E-2</v>
+        <v>0.10000000000000012</v>
       </c>
       <c r="I12" s="8">
         <f>E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.9</v>
+        <v>0.80000000000000049</v>
       </c>
       <c r="K12">
         <f>SUM(G12:I12)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>G12*I12</f>
+        <v>7.9999999999999544E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="C13" s="12">
-        <v>5.5425904317385997E-2</v>
+        <v>9.5873280533555996E-2</v>
       </c>
       <c r="D13" s="12">
-        <v>1.1085180863477E-2</v>
+        <v>2.8761984160066999E-2</v>
       </c>
       <c r="E13" s="12">
-        <v>0.93348891481913698</v>
+        <v>0.87536473530637804</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" ref="G13:G15" si="5">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.14999999999999958</v>
+        <f t="shared" ref="G13:G15" si="6">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.20000000000000032</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ref="H13:H15" si="6">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>4.9999999999998962E-2</v>
+        <f t="shared" ref="H13:H15" si="7">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.10000000000000085</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" ref="I13:I15" si="7">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.80000000000000149</v>
+        <f t="shared" ref="I13:I15" si="8">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.69999999999999885</v>
       </c>
       <c r="K13">
         <f>SUM(G13:I13)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" ref="L13:L20" si="9">G13*I13</f>
+        <v>0.13999999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="C14" s="12">
-        <v>0.100380388841927</v>
+        <v>0.155826558265583</v>
       </c>
       <c r="D14" s="12">
-        <v>1.2045646661030999E-2</v>
+        <v>3.1165311653116999E-2</v>
       </c>
       <c r="E14" s="12">
-        <v>0.88757396449704096</v>
+        <v>0.81300813008130102</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="5"/>
-        <v>0.24999999999999981</v>
+        <f t="shared" si="6"/>
+        <v>0.3</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="6"/>
-        <v>4.9999999999998969E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10000000000000127</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="7"/>
-        <v>0.70000000000000118</v>
+        <f t="shared" si="8"/>
+        <v>0.59999999999999876</v>
       </c>
       <c r="K14">
         <f>SUM(G14:I14)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>0.17999999999999963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="C15" s="12">
-        <v>0.15386395187413199</v>
+        <v>0.226712666338098</v>
       </c>
       <c r="D15" s="12">
-        <v>1.3188338732068001E-2</v>
+        <v>3.4006899950715E-2</v>
       </c>
       <c r="E15" s="12">
-        <v>0.83294770939379903</v>
+        <v>0.73928043371118801</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="5"/>
-        <v>0.3500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="6"/>
-        <v>4.9999999999998296E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10000000000000088</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="7"/>
-        <v>0.60000000000000153</v>
+        <f t="shared" si="8"/>
+        <v>0.49999999999999917</v>
       </c>
       <c r="K15">
         <f>SUM(G15:I15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>0.19999999999999965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="C16" s="12">
-        <v>0.218558282208589</v>
+        <v>0.267234701781565</v>
       </c>
       <c r="D16" s="12">
-        <v>1.4570552147238999E-2</v>
+        <v>3.5631293570875001E-2</v>
       </c>
       <c r="E16" s="12">
-        <v>0.76687116564417201</v>
+        <v>0.69713400464756003</v>
       </c>
       <c r="G16" s="8">
         <f>C16*$A$2/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.45000000000000034</v>
+        <v>0.45000000000000073</v>
       </c>
       <c r="H16" s="8">
         <f>D16*$A$6/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>4.9999999999999128E-2</v>
+        <v>9.9999999999999215E-2</v>
       </c>
       <c r="I16" s="8">
         <f>E16*$A$4/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.50000000000000044</v>
+        <v>0.45000000000000012</v>
       </c>
       <c r="K16">
         <f>SUM(G16:I16)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>0.20250000000000037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="C17" s="12">
-        <v>0.29840091376356398</v>
+        <v>0.31182212581344898</v>
       </c>
       <c r="D17" s="12">
-        <v>1.6276413478013001E-2</v>
+        <v>3.7418655097614002E-2</v>
       </c>
       <c r="E17" s="12">
-        <v>0.68532267275842396</v>
+        <v>0.65075921908893697</v>
       </c>
       <c r="G17" s="8">
         <f>C17*$A$2/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
-        <v>0.54999999999999938</v>
+        <v>0.49999999999999983</v>
       </c>
       <c r="H17" s="8">
         <f>D17*$A$6/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
-        <v>5.0000000000001245E-2</v>
+        <v>0.1000000000000003</v>
       </c>
       <c r="I17" s="8">
         <f>E17*$A$4/(C17*$A$2+E17*$A$4+D17*$A$6)</f>
-        <v>0.3999999999999993</v>
+        <v>0.3999999999999998</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K20" si="8">SUM(G17:I17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K17:K20" si="10">SUM(G17:I17)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>0.19999999999999984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="C18" s="12">
-        <v>0.39941785252263901</v>
+        <v>0.41591320072332699</v>
       </c>
       <c r="D18" s="12">
-        <v>1.8434670116428999E-2</v>
+        <v>4.1591320072333002E-2</v>
       </c>
       <c r="E18" s="12">
-        <v>0.58214747736093198</v>
+        <v>0.54249547920434005</v>
       </c>
       <c r="G18" s="8">
         <f>C18*$A$2/(C18*$A$2+E18*$A$4+D18*$A$6)</f>
-        <v>0.65000000000000069</v>
+        <v>0.59999999999999953</v>
       </c>
       <c r="H18" s="8">
         <f>D18*$A$6/(C18*$A$2+E18*$A$4+D18*$A$6)</f>
-        <v>4.9999999999998719E-2</v>
+        <v>0.10000000000000063</v>
       </c>
       <c r="I18" s="8">
         <f>E18*$A$4/(C18*$A$2+E18*$A$4+D18*$A$6)</f>
-        <v>0.30000000000000066</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="K18">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>0.17999999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="C19" s="12">
-        <v>0.53131991051454097</v>
+        <v>0.54613297150610596</v>
       </c>
       <c r="D19" s="12">
-        <v>2.1252796420582001E-2</v>
+        <v>4.6811397557666001E-2</v>
       </c>
       <c r="E19" s="12">
-        <v>0.447427293064877</v>
+        <v>0.40705563093622799</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" ref="G19:G20" si="9">C19*$A$2/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
-        <v>0.74999999999999922</v>
+        <f t="shared" ref="G19:G20" si="11">C19*$A$2/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
+        <v>0.70000000000000029</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ref="H19:H20" si="10">D19*$A$6/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
-        <v>5.0000000000000794E-2</v>
+        <f t="shared" ref="H19:H20" si="12">D19*$A$6/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
+        <v>9.9999999999999575E-2</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" ref="I19:I20" si="11">E19*$A$4/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="I19:I20" si="13">E19*$A$4/(C19*$A$2+E19*$A$4+D19*$A$6)</f>
+        <v>0.20000000000000007</v>
       </c>
       <c r="K19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>0.1400000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="C20" s="12">
-        <v>0.71082746478873204</v>
+        <v>0.713731574864236</v>
       </c>
       <c r="D20" s="12">
-        <v>2.5088028169013999E-2</v>
+        <v>5.3529868114817997E-2</v>
       </c>
       <c r="E20" s="12">
-        <v>0.264084507042254</v>
+        <v>0.23273855702094601</v>
       </c>
       <c r="G20" s="8">
+        <f t="shared" si="11"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.10000000000000052</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999742E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="9"/>
-        <v>0.85</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="10"/>
-        <v>4.9999999999999857E-2</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="11"/>
-        <v>0.10000000000000023</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="8"/>
+        <v>7.999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>1</v>
       </c>
     </row>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,282 +930,151 @@
     </row>
     <row r="12" spans="1:13">
       <c r="C12" s="13">
-        <v>0.4</v>
+        <v>0.27777777777777801</v>
       </c>
       <c r="D12" s="13">
-        <v>0.2</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="E12" s="13">
-        <v>0.6</v>
+        <v>0.55555555555555602</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" ref="G12:G20" si="6">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.29268292682926828</v>
+        <v>0.24999999999999983</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" ref="H12:H20" si="7">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.48780487804878048</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" ref="I12:I20" si="8">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.21951219512195122</v>
+        <v>0.24999999999999983</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12:K20" si="9">SUM(G12:I12)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:L20" si="10">G12*I12</f>
-        <v>6.4247471743010112E-2</v>
+        <v>6.2499999999999917E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" s="8">
-        <v>9.5873280533555996E-2</v>
+        <v>0.317460317460317</v>
       </c>
       <c r="D13" s="8">
-        <v>2.8761984160066999E-2</v>
+        <v>4.7619047619047998E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>0.87536473530637804</v>
+        <v>0.634920634920635</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="6"/>
-        <v>0.15231788079470215</v>
+        <f>C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.39999999999999891</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="7"/>
-        <v>0.15231788079470321</v>
+        <f>D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.20000000000000137</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="8"/>
-        <v>0.69536423841059458</v>
+        <f>E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.39999999999999958</v>
       </c>
       <c r="K13">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>SUM(G13:I13)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L13">
-        <f t="shared" si="10"/>
-        <v>0.10591640717512379</v>
+        <f>G13*I13</f>
+        <v>0.15999999999999939</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="8">
-        <v>0.155826558265583</v>
+        <v>0.32608695652173902</v>
       </c>
       <c r="D14" s="8">
-        <v>3.1165311653116999E-2</v>
+        <v>2.1739130434783E-2</v>
       </c>
       <c r="E14" s="8">
-        <v>0.81300813008130102</v>
+        <v>0.65217391304347805</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="6"/>
-        <v>0.23389830508474557</v>
+        <f>C14*$A$2/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
+        <v>0.44999999999999918</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="7"/>
-        <v>0.15593220338983238</v>
+        <f>D14*$A$6/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
+        <v>0.10000000000000164</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="8"/>
-        <v>0.6101694915254221</v>
+        <f>E14*$A$4/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
+        <v>0.44999999999999918</v>
       </c>
       <c r="K14">
-        <f t="shared" si="9"/>
+        <f>SUM(G14:I14)</f>
         <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" si="10"/>
-        <v>0.14271760988221727</v>
+        <f>G14*I14</f>
+        <v>0.20249999999999926</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="C15" s="8">
-        <v>0.226712666338098</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D15" s="8">
-        <v>3.4006899950715E-2</v>
+        <v>1.0416666666666999E-2</v>
       </c>
       <c r="E15" s="8">
-        <v>0.73928043371118801</v>
+        <v>0.65972222222222199</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="6"/>
-        <v>0.31944444444444431</v>
+        <f>C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
+        <v>0.47499999999999926</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="7"/>
-        <v>0.15972222222222357</v>
+        <f>D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
+        <v>5.0000000000001529E-2</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="8"/>
-        <v>0.52083333333333226</v>
+        <f>E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
+        <v>0.47499999999999926</v>
       </c>
       <c r="K15">
-        <f t="shared" si="9"/>
+        <f>SUM(G15:I15)</f>
         <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="10"/>
-        <v>0.16637731481481441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="8">
-        <v>0.267234701781565</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3.5631293570875001E-2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.69713400464756003</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="6"/>
-        <v>0.36379613356766333</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="7"/>
-        <v>0.1616871704745155</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="8"/>
-        <v>0.47451669595782109</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="9"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="10"/>
-        <v>0.17262733930275778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="C17" s="8">
-        <v>0.31182212581344898</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3.7418655097614002E-2</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.65075921908893697</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="6"/>
-        <v>0.4092526690391457</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="7"/>
-        <v>0.16370106761565884</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="8"/>
-        <v>0.42704626334519552</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="10"/>
-        <v>0.17476982307721517</v>
+        <f>G15*I15</f>
+        <v>0.2256249999999993</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="C18" s="8">
-        <v>0.41591320072332699</v>
-      </c>
-      <c r="D18" s="8">
-        <v>4.1591320072333002E-2</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.54249547920434005</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="6"/>
-        <v>0.50364963503649562</v>
-      </c>
-      <c r="H18" s="9">
-        <f t="shared" si="7"/>
-        <v>0.16788321167883308</v>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="8"/>
-        <v>0.32846715328467135</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="10"/>
-        <v>0.1654323618733014</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="C19" s="8">
-        <v>0.54613297150610596</v>
-      </c>
-      <c r="D19" s="8">
-        <v>4.6811397557666001E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.40705563093622799</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="6"/>
-        <v>0.60299625468164841</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="7"/>
-        <v>0.17228464419475589</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="8"/>
-        <v>0.22471910112359567</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="10"/>
-        <v>0.1355047763329548</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="C20" s="8">
-        <v>0.713731574864236</v>
-      </c>
-      <c r="D20" s="8">
-        <v>5.3529868114817997E-2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.23273855702094601</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="6"/>
-        <v>0.70769230769230718</v>
-      </c>
-      <c r="H20" s="9">
-        <f t="shared" si="7"/>
-        <v>0.17692307692307777</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="8"/>
-        <v>0.11538461538461504</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="10"/>
-        <v>8.1656804733727509E-2</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="14"/>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,34 +619,31 @@
         <v>60</v>
       </c>
       <c r="C2" s="8">
-        <v>7.2961369999999998E-2</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f t="shared" ref="E2:E10" si="0">1-C2</f>
-        <v>0.92703862999999997</v>
+        <f t="shared" ref="C2:E10" si="0">1-C2</f>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G2" s="9">
         <f t="shared" ref="G2:G10" si="1">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.13599999410975999</v>
-      </c>
-      <c r="H2" s="9">
-        <f t="shared" ref="H2:H10" si="2">D2*$A$6/(E2*$A$2+D2*$A$4+D2*$A$6)</f>
-        <v>0</v>
-      </c>
+        <v>0.49999999999999967</v>
+      </c>
+      <c r="H2" s="9"/>
       <c r="I2" s="9">
-        <f t="shared" ref="I2:I10" si="3">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.86400000589024006</v>
+        <f t="shared" ref="I2:I10" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <v>0.50000000000000033</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="4">SUM(G2:I2)</f>
+        <f t="shared" ref="K2:K10" si="3">SUM(G2:I2)</f>
         <v>1</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L10" si="5">G2*I2</f>
-        <v>0.11750399571190524</v>
+        <f t="shared" ref="L2:L10" si="4">G2*I2</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -654,35 +651,31 @@
         <v>8</v>
       </c>
       <c r="C3" s="8">
-        <f>C2*2+0.00451974</f>
-        <v>0.15044247999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" si="0"/>
-        <v>0.84955752000000007</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" si="1"/>
-        <v>0.26153846474792897</v>
-      </c>
-      <c r="H3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="K3">
         <f t="shared" si="3"/>
-        <v>0.73846153525207114</v>
-      </c>
-      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="5"/>
-        <v>0.19313609620522532</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -690,35 +683,31 @@
         <v>30</v>
       </c>
       <c r="C4" s="8">
-        <f>3*C3/2</f>
-        <v>0.22566371999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="0"/>
-        <v>0.77433627999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="1"/>
-        <v>0.368231051172829</v>
-      </c>
-      <c r="H4" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="3"/>
-        <v>0.63176894882717094</v>
-      </c>
-      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>0.23263694412498237</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -726,34 +715,31 @@
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <v>0.20353982300885001</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>0.79646017699115002</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>0.33823529411764769</v>
-      </c>
-      <c r="H5" s="9">
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+        <v>0.74999999999999967</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="3"/>
-        <v>0.66176470588235237</v>
-      </c>
-      <c r="K5">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>0.22383217993079607</v>
+        <v>0.18750000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -761,163 +747,86 @@
         <v>200</v>
       </c>
       <c r="C6" s="8">
-        <v>0.27710843373493999</v>
-      </c>
-      <c r="D6" s="8">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>0.72289156626506001</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>0.43396226415094369</v>
-      </c>
-      <c r="H6" s="9">
+        <v>0.60000000000000042</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+        <v>0.39999999999999958</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="3"/>
-        <v>0.56603773584905626</v>
-      </c>
-      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>0.24563901744393024</v>
+        <v>0.23999999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="C7" s="8">
-        <v>0.365079365079365</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.634920634920635</v>
+        <v>0.33333333333333404</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.53488372093023251</v>
-      </c>
-      <c r="H7" s="9">
+        <v>0.79999999999999949</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="3"/>
-        <v>0.46511627906976755</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>0.24878312601406169</v>
+        <v>0.20000000000000051</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="C8" s="8">
-        <v>0.47214076246334302</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>0.52785923753665698</v>
+        <v>0.88888888888888906</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0.64143426294820705</v>
-      </c>
-      <c r="H8" s="9">
+        <v>0.19999999999999982</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="3"/>
-        <v>0.3585657370517929</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>0.22999634926429738</v>
+        <v>0.80000000000000027</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="8">
-        <v>0.60526315789473695</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39473684210526305</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75409836065573788</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" si="3"/>
-        <v>0.24590163934426221</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>0.18543402311206664</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="8">
-        <v>0.77528089887640494</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.22471910112359506</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.87341772151898767</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12658227848101236</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>0.1105592052555678</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:13" s="10" customFormat="1">
       <c r="B11" s="11"/>
@@ -939,23 +848,23 @@
         <v>0.55555555555555602</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="G12:G20" si="6">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <f t="shared" ref="G12" si="5">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
         <v>0.24999999999999983</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ref="H12:H20" si="7">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <f t="shared" ref="H12" si="6">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
         <v>0.50000000000000022</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ref="I12:I20" si="8">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <f t="shared" ref="I12" si="7">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
         <v>0.24999999999999983</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K20" si="9">SUM(G12:I12)</f>
+        <f t="shared" ref="K12" si="8">SUM(G12:I12)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L20" si="10">G12*I12</f>
+        <f t="shared" ref="L12" si="9">G12*I12</f>
         <v>6.2499999999999917E-2</v>
       </c>
     </row>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +584,7 @@
     <col min="11" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -613,61 +613,64 @@
         <v>7</v>
       </c>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="R1">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>60</v>
       </c>
-      <c r="C2" s="8">
-        <v>0.33333333333333298</v>
+      <c r="C2">
+        <v>0.11111111111111099</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f t="shared" ref="C2:E10" si="0">1-C2</f>
-        <v>0.66666666666666696</v>
+        <f t="shared" ref="E2:E9" si="0">1-C2</f>
+        <v>0.88888888888888906</v>
       </c>
       <c r="G2" s="9">
-        <f t="shared" ref="G2:G10" si="1">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.49999999999999967</v>
+        <f t="shared" ref="G2:G9" si="1">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <v>0.19480519480519462</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9">
-        <f t="shared" ref="I2:I10" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.50000000000000033</v>
+        <f t="shared" ref="I2:I9" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
+        <v>0.80519480519480535</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="3">SUM(G2:I2)</f>
+        <f t="shared" ref="K2:K6" si="3">SUM(G2:I2)</f>
         <v>1</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L10" si="4">G2*I2</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <f t="shared" ref="L2:L6" si="4">G2*I2</f>
+        <v>0.15685613088210479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8">
-        <v>0.25</v>
+        <v>0.17647058823529399</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" ref="E3" si="5">1-C3</f>
+        <v>0.82352941176470607</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.29315960912052097</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.70684039087947903</v>
       </c>
       <c r="K3">
         <f t="shared" si="3"/>
@@ -675,31 +678,31 @@
       </c>
       <c r="L3">
         <f t="shared" si="4"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.20721705270082433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.60784313725490191</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
@@ -707,63 +710,59 @@
       </c>
       <c r="L4">
         <f t="shared" si="4"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.23836985774702035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>0.85714285714285698</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>0.25000000000000022</v>
+        <v>0.49180327868852419</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9">
         <f t="shared" si="2"/>
-        <v>0.74999999999999967</v>
+        <v>0.50819672131147575</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>0.18750000000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.24993281375974197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>200</v>
       </c>
       <c r="C6" s="8">
         <v>0.42857142857142899</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>0.57142857142857095</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>0.60000000000000042</v>
+        <v>0.59210526315789513</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9">
         <f t="shared" si="2"/>
-        <v>0.39999999999999958</v>
+        <v>0.40789473684210481</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -771,56 +770,66 @@
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>0.23999999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.24151662049861486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="C7" s="8">
-        <v>0.66666666666666596</v>
+        <v>0.53846153846153799</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>0.33333333333333404</v>
+        <v>0.46153846153846201</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.79999999999999949</v>
+        <v>0.69306930693069269</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
         <f t="shared" si="2"/>
-        <v>0.20000000000000051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.30693069306930737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="C8" s="8">
-        <v>0.11111111111111099</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.88888888888888906</v>
+        <v>0.3226</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0.19999999999999982</v>
+        <v>0.79999040011519873</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9">
         <f t="shared" si="2"/>
-        <v>0.80000000000000027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="8"/>
+        <v>0.20000959988480133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="C9" s="8">
+        <v>0.81818181818181801</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89700996677740852</v>
+      </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10299003322259148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -828,7 +837,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="10" customFormat="1">
+    <row r="11" spans="1:18" s="10" customFormat="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -837,7 +846,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:18">
       <c r="C12" s="13">
         <v>0.27777777777777801</v>
       </c>
@@ -848,27 +857,27 @@
         <v>0.55555555555555602</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="G12" si="5">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.24999999999999983</v>
+        <f t="shared" ref="G12" si="6">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <v>0.24793388429752056</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ref="H12" si="6">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.50000000000000022</v>
+        <f t="shared" ref="H12" si="7">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <v>0.49586776859504161</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ref="I12" si="7">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.24999999999999983</v>
+        <f t="shared" ref="I12" si="8">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <v>0.25619834710743788</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="8">SUM(G12:I12)</f>
-        <v>0.99999999999999978</v>
+        <f t="shared" ref="K12" si="9">SUM(G12:I12)</f>
+        <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12" si="9">G12*I12</f>
-        <v>6.2499999999999917E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <f t="shared" ref="L12" si="10">G12*I12</f>
+        <v>6.352025134895152E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="C13" s="8">
         <v>0.317460317460317</v>
       </c>
@@ -880,26 +889,26 @@
       </c>
       <c r="G13" s="9">
         <f>C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.39999999999999891</v>
+        <v>0.39473684210526211</v>
       </c>
       <c r="H13" s="9">
         <f>D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.20000000000000137</v>
+        <v>0.19736842105263294</v>
       </c>
       <c r="I13" s="9">
         <f>E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.39999999999999958</v>
+        <v>0.40789473684210481</v>
       </c>
       <c r="K13">
         <f>SUM(G13:I13)</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L13">
         <f>G13*I13</f>
-        <v>0.15999999999999939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.16101108033240938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="C14" s="8">
         <v>0.32608695652173902</v>
       </c>
@@ -911,15 +920,15 @@
       </c>
       <c r="G14" s="9">
         <f>C14*$A$2/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.44999999999999918</v>
+        <v>0.44334975369458046</v>
       </c>
       <c r="H14" s="9">
         <f>D14*$A$6/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.10000000000000164</v>
+        <v>9.8522167487686357E-2</v>
       </c>
       <c r="I14" s="9">
         <f>E14*$A$4/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.44999999999999918</v>
+        <v>0.45812807881773321</v>
       </c>
       <c r="K14">
         <f>SUM(G14:I14)</f>
@@ -927,10 +936,10 @@
       </c>
       <c r="L14">
         <f>G14*I14</f>
-        <v>0.20249999999999926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.20311097090441335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="C15" s="8">
         <v>0.32986111111111099</v>
       </c>
@@ -942,15 +951,15 @@
       </c>
       <c r="G15" s="9">
         <f>C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.47499999999999926</v>
+        <v>0.46759639048400253</v>
       </c>
       <c r="H15" s="9">
         <f>D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>5.0000000000001529E-2</v>
+        <v>4.9220672682528166E-2</v>
       </c>
       <c r="I15" s="9">
         <f>E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.47499999999999926</v>
+        <v>0.4831829368334693</v>
       </c>
       <c r="K15">
         <f>SUM(G15:I15)</f>
@@ -958,7 +967,7 @@
       </c>
       <c r="L15">
         <f>G15*I15</f>
-        <v>0.2256249999999993</v>
+        <v>0.22593459720679004</v>
       </c>
     </row>
     <row r="18" spans="1:15">

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,12 +633,12 @@
       </c>
       <c r="G2" s="9">
         <f t="shared" ref="G2:G9" si="1">C2*$A$2/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.19480519480519462</v>
+        <v>0.19999999999999982</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9">
         <f t="shared" ref="I2:I9" si="2">E2*$A$4/(C2*$A$2+E2*$A$4+D2*$A$6)</f>
-        <v>0.80519480519480535</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K6" si="3">SUM(G2:I2)</f>
@@ -646,7 +646,7 @@
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L6" si="4">G2*I2</f>
-        <v>0.15685613088210479</v>
+        <v>0.15999999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -665,12 +665,12 @@
       </c>
       <c r="G3" s="9">
         <f t="shared" si="1"/>
-        <v>0.29315960912052097</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9">
         <f t="shared" si="2"/>
-        <v>0.70684039087947903</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="K3">
         <f t="shared" si="3"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="L3">
         <f t="shared" si="4"/>
-        <v>0.20721705270082433</v>
+        <v>0.20999999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8">
         <v>0.25</v>
@@ -697,12 +697,12 @@
       </c>
       <c r="G4" s="9">
         <f t="shared" si="1"/>
-        <v>0.39215686274509803</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9">
         <f t="shared" si="2"/>
-        <v>0.60784313725490191</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
@@ -710,7 +710,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="4"/>
-        <v>0.23836985774702035</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -727,12 +727,12 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>0.49180327868852419</v>
+        <v>0.49999999999999967</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9">
         <f t="shared" si="2"/>
-        <v>0.50819672131147575</v>
+        <v>0.50000000000000033</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>0.24993281375974197</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -757,12 +757,12 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>0.59210526315789513</v>
+        <v>0.60000000000000042</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9">
         <f t="shared" si="2"/>
-        <v>0.40789473684210481</v>
+        <v>0.39999999999999958</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>0.24151662049861486</v>
+        <v>0.23999999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -784,12 +784,12 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.69306930693069269</v>
+        <v>0.69999999999999962</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
         <f t="shared" si="2"/>
-        <v>0.30693069306930737</v>
+        <v>0.30000000000000043</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -802,12 +802,12 @@
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0.79999040011519873</v>
+        <v>0.8051853939369541</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9">
         <f t="shared" si="2"/>
-        <v>0.20000959988480133</v>
+        <v>0.19481460606304599</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -821,12 +821,12 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>0.89700996677740852</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9">
         <f t="shared" si="2"/>
-        <v>0.10299003322259148</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -858,23 +858,23 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" ref="G12" si="6">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.24793388429752056</v>
+        <v>0.24999999999999983</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" ref="H12" si="7">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.49586776859504161</v>
+        <v>0.50000000000000022</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" ref="I12" si="8">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.25619834710743788</v>
+        <v>0.24999999999999983</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" si="9">SUM(G12:I12)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12" si="10">G12*I12</f>
-        <v>6.352025134895152E-2</v>
+        <v>6.2499999999999917E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -889,23 +889,23 @@
       </c>
       <c r="G13" s="9">
         <f>C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.39473684210526211</v>
+        <v>0.39999999999999891</v>
       </c>
       <c r="H13" s="9">
         <f>D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.19736842105263294</v>
+        <v>0.20000000000000137</v>
       </c>
       <c r="I13" s="9">
         <f>E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.40789473684210481</v>
+        <v>0.39999999999999958</v>
       </c>
       <c r="K13">
         <f>SUM(G13:I13)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L13">
         <f>G13*I13</f>
-        <v>0.16101108033240938</v>
+        <v>0.15999999999999939</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -920,15 +920,15 @@
       </c>
       <c r="G14" s="9">
         <f>C14*$A$2/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.44334975369458046</v>
+        <v>0.44999999999999918</v>
       </c>
       <c r="H14" s="9">
         <f>D14*$A$6/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>9.8522167487686357E-2</v>
+        <v>0.10000000000000164</v>
       </c>
       <c r="I14" s="9">
         <f>E14*$A$4/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.45812807881773321</v>
+        <v>0.44999999999999918</v>
       </c>
       <c r="K14">
         <f>SUM(G14:I14)</f>
@@ -936,7 +936,7 @@
       </c>
       <c r="L14">
         <f>G14*I14</f>
-        <v>0.20311097090441335</v>
+        <v>0.20249999999999926</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -951,15 +951,15 @@
       </c>
       <c r="G15" s="9">
         <f>C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.46759639048400253</v>
+        <v>0.47499999999999926</v>
       </c>
       <c r="H15" s="9">
         <f>D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>4.9220672682528166E-2</v>
+        <v>5.0000000000001529E-2</v>
       </c>
       <c r="I15" s="9">
         <f>E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.4831829368334693</v>
+        <v>0.47499999999999926</v>
       </c>
       <c r="K15">
         <f>SUM(G15:I15)</f>
@@ -967,7 +967,7 @@
       </c>
       <c r="L15">
         <f>G15*I15</f>
-        <v>0.22593459720679004</v>
+        <v>0.2256249999999993</v>
       </c>
     </row>
     <row r="18" spans="1:15">

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G13" sqref="G13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,7 +581,9 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
-    <col min="11" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="11" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" customWidth="1"/>
+    <col min="18" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -970,7 +972,7 @@
         <v>0.2256249999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:17">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -978,7 +980,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:17">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -986,7 +988,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:17">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -994,7 +996,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:17">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
@@ -1009,7 +1011,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:17">
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1031,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="26" spans="1:17">
+      <c r="Q26" s="8">
+        <f>E12+D12</f>
+        <v>0.72222222222222299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="O27">
         <f>6971+365</f>
         <v>7336</v>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,7 +581,9 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
-    <col min="11" max="16" width="8.85546875" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="26.5703125" customWidth="1"/>
     <col min="18" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -880,88 +882,88 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="C13" s="8">
-        <v>0.317460317460317</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4.7619047619047998E-2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.634920634920635</v>
+      <c r="C13" s="13">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.1171</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.58760000000000001</v>
       </c>
       <c r="G13" s="9">
-        <f>C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.39999999999999891</v>
+        <f t="shared" ref="G13" si="11">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.30150086784875607</v>
       </c>
       <c r="H13" s="9">
-        <f>D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.20000000000000137</v>
+        <f t="shared" ref="H13" si="12">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.39852976210734092</v>
       </c>
       <c r="I13" s="9">
-        <f>E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.39999999999999958</v>
+        <f t="shared" ref="I13" si="13">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
+        <v>0.29996937004390289</v>
       </c>
       <c r="K13">
-        <f>SUM(G13:I13)</f>
+        <f t="shared" ref="K13" si="14">SUM(G13:I13)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="L13">
-        <f>G13*I13</f>
-        <v>0.15999999999999939</v>
+        <f t="shared" ref="L13" si="15">G13*I13</f>
+        <v>9.0441025396281377E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="C14" s="8">
-        <v>0.32608695652173902</v>
+        <v>0.317460317460317</v>
       </c>
       <c r="D14" s="8">
-        <v>2.1739130434783E-2</v>
+        <v>4.7619047619047998E-2</v>
       </c>
       <c r="E14" s="8">
-        <v>0.65217391304347805</v>
+        <v>0.634920634920635</v>
       </c>
       <c r="G14" s="9">
         <f>C14*$A$2/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.44999999999999918</v>
+        <v>0.39999999999999891</v>
       </c>
       <c r="H14" s="9">
         <f>D14*$A$6/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.10000000000000164</v>
+        <v>0.20000000000000137</v>
       </c>
       <c r="I14" s="9">
         <f>E14*$A$4/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.44999999999999918</v>
+        <v>0.39999999999999958</v>
       </c>
       <c r="K14">
         <f>SUM(G14:I14)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L14">
         <f>G14*I14</f>
-        <v>0.20249999999999926</v>
+        <v>0.15999999999999939</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="C15" s="8">
-        <v>0.32986111111111099</v>
+        <v>0.32608695652173902</v>
       </c>
       <c r="D15" s="8">
-        <v>1.0416666666666999E-2</v>
+        <v>2.1739130434783E-2</v>
       </c>
       <c r="E15" s="8">
-        <v>0.65972222222222199</v>
+        <v>0.65217391304347805</v>
       </c>
       <c r="G15" s="9">
         <f>C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.47499999999999926</v>
+        <v>0.44999999999999918</v>
       </c>
       <c r="H15" s="9">
         <f>D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>5.0000000000001529E-2</v>
+        <v>0.10000000000000164</v>
       </c>
       <c r="I15" s="9">
         <f>E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.47499999999999926</v>
+        <v>0.44999999999999918</v>
       </c>
       <c r="K15">
         <f>SUM(G15:I15)</f>
@@ -969,16 +971,39 @@
       </c>
       <c r="L15">
         <f>G15*I15</f>
+        <v>0.20249999999999926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="C16" s="8">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.0416666666666999E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G16" s="9">
+        <f>C16*$A$2/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>0.47499999999999926</v>
+      </c>
+      <c r="H16" s="9">
+        <f>D16*$A$6/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>5.0000000000001529E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f>E16*$A$4/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>0.47499999999999926</v>
+      </c>
+      <c r="K16">
+        <f>SUM(G16:I16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>G16*I16</f>
         <v>0.2256249999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="8"/>
@@ -997,50 +1022,70 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="Q26" s="8">
+    <row r="27" spans="1:17">
+      <c r="Q27" s="8">
         <f>E12+D12</f>
         <v>0.72222222222222299</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="O27">
+    <row r="28" spans="1:17">
+      <c r="O28">
         <f>6971+365</f>
         <v>7336</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14">
+      <c r="N34" s="8">
+        <f>D15+E15</f>
+        <v>0.67391304347826109</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37">
+        <f>5876+1171</f>
+        <v>7047</v>
       </c>
     </row>
   </sheetData>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BroadcastSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingframin/BroadcastSimulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C52898-15AE-ED40-8D63-112B68634CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Trx</t>
   </si>
@@ -59,12 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,10 +223,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Excel Built-in 60% - Accent2" xfId="3"/>
-    <cellStyle name="Excel Built-in Bad" xfId="2"/>
-    <cellStyle name="Excel Built-in Good" xfId="4"/>
-    <cellStyle name="Excel Built-in Note" xfId="1"/>
+    <cellStyle name="Excel Built-in 60% - Accent2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel Built-in Note" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,33 +572,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="26.5703125" customWidth="1"/>
-    <col min="18" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="18" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -621,7 +631,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>60</v>
       </c>
@@ -653,7 +663,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -685,7 +695,7 @@
         <v>0.20999999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -717,7 +727,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -747,7 +757,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200</v>
       </c>
@@ -777,7 +787,7 @@
         <v>0.23999999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>0.53846153846153799</v>
       </c>
@@ -796,7 +806,7 @@
         <v>0.30000000000000043</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>0.66666666666666696</v>
       </c>
@@ -814,7 +824,7 @@
         <v>0.19481460606304599</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>0.81818181818181801</v>
       </c>
@@ -833,7 +843,7 @@
         <v>0.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -841,7 +851,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1">
+    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -850,7 +860,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="13">
         <v>0.27777777777777801</v>
       </c>
@@ -881,7 +891,7 @@
         <v>6.2499999999999917E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="13">
         <v>0.29530000000000001</v>
       </c>
@@ -912,7 +922,7 @@
         <v>9.0441025396281377E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="8">
         <v>0.317460317460317</v>
       </c>
@@ -943,7 +953,7 @@
         <v>0.15999999999999939</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>0.32608695652173902</v>
       </c>
@@ -974,7 +984,7 @@
         <v>0.20249999999999926</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="8">
         <v>0.32986111111111099</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>0.2256249999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1013,7 +1023,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1021,7 +1031,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1029,7 +1039,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -1044,7 +1054,7 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1064,25 +1074,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q27" s="8">
         <f>E12+D12</f>
         <v>0.72222222222222299</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O28">
         <f>6971+365</f>
         <v>7336</v>
       </c>
     </row>
-    <row r="34" spans="14:14">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N34" s="8">
         <f>D15+E15</f>
         <v>0.67391304347826109</v>
       </c>
     </row>
-    <row r="37" spans="14:14">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N37">
         <f>5876+1171</f>
         <v>7047</v>
@@ -1092,4 +1102,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC122C4E-863B-2A49-A795-0C5CF5293EA6}">
+  <dimension ref="A1:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="3.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="R1">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8">
+        <f t="shared" ref="E2:E9" si="0">1-C5</f>
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G2:G9" si="1">C5*$A$2/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <f t="shared" ref="I2:I9" si="2">E5*$A$4/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K2:K6" si="3">SUM(G5:I5)</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L2:L6" si="4">G5*I5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="13">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" ref="G12:G13" si="5">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <v>0.33333333333333315</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" ref="H12:H13" si="6">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <v>0.44444444444444475</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" ref="I12:I13" si="7">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
+        <v>0.22222222222222213</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K13" si="8">SUM(G12:I12)</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L13" si="9">G12*I12</f>
+        <v>7.4074074074074001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="13">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.1171</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="5"/>
+        <v>0.3930055452865065</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="6"/>
+        <v>0.3463216266173752</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="7"/>
+        <v>0.2606728280961183</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>0.10244586694729074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="8">
+        <v>0.317460317460317</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4.7619047619047998E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.634920634920635</v>
+      </c>
+      <c r="G14" s="9">
+        <f>C14*$A$2/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
+        <v>0.49999999999999895</v>
+      </c>
+      <c r="H14" s="9">
+        <f>D14*$A$6/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
+        <v>0.16666666666666788</v>
+      </c>
+      <c r="I14" s="9">
+        <f>E14*$A$4/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
+        <v>0.33333333333333315</v>
+      </c>
+      <c r="K14">
+        <f>SUM(G14:I14)</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>G14*I14</f>
+        <v>0.16666666666666621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="8">
+        <v>0.32608695652173902</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2.1739130434783E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="G15" s="9">
+        <f>C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
+        <v>0.55102040816326447</v>
+      </c>
+      <c r="H15" s="9">
+        <f>D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
+        <v>8.1632653061225857E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f>E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
+        <v>0.36734693877550961</v>
+      </c>
+      <c r="K15">
+        <f>SUM(G15:I15)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L15">
+        <f>G15*I15</f>
+        <v>0.20241566014160703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="8">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.0416666666666999E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G16" s="9">
+        <f>C16*$A$2/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>0.57575757575757502</v>
+      </c>
+      <c r="H16" s="9">
+        <f>D16*$A$6/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>4.040404040404165E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f>E16*$A$4/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
+        <v>0.38383838383838337</v>
+      </c>
+      <c r="K16">
+        <f>SUM(G16:I16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>G16*I16</f>
+        <v>0.22099785736149316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="8">
+        <f>E12+D12</f>
+        <v>0.72222222222222299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <f>6971+365</f>
+        <v>7336</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="8">
+        <f>D15+E15</f>
+        <v>0.67391304347826109</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <f>5876+1171</f>
+        <v>7047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingframin/BroadcastSimulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BroadcastSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C52898-15AE-ED40-8D63-112B68634CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -69,12 +68,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,10 +222,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Excel Built-in 60% - Accent2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Excel Built-in Good" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Excel Built-in Note" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Excel Built-in 60% - Accent2" xfId="3"/>
+    <cellStyle name="Excel Built-in Bad" xfId="2"/>
+    <cellStyle name="Excel Built-in Good" xfId="4"/>
+    <cellStyle name="Excel Built-in Note" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,33 +571,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" style="3" customWidth="1"/>
-    <col min="11" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" customWidth="1"/>
-    <col min="17" max="17" width="26.5" customWidth="1"/>
-    <col min="18" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="18" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -631,7 +630,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>60</v>
       </c>
@@ -663,7 +662,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -695,7 +694,7 @@
         <v>0.20999999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>30</v>
       </c>
@@ -727,7 +726,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -757,9 +756,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8">
         <v>0.42857142857142899</v>
@@ -787,7 +786,7 @@
         <v>0.23999999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="C7" s="8">
         <v>0.53846153846153799</v>
       </c>
@@ -806,7 +805,7 @@
         <v>0.30000000000000043</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="C8" s="8">
         <v>0.66666666666666696</v>
       </c>
@@ -824,7 +823,7 @@
         <v>0.19481460606304599</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="C9" s="8">
         <v>0.81818181818181801</v>
       </c>
@@ -843,7 +842,7 @@
         <v>0.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -851,7 +850,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="10" customFormat="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -860,100 +859,100 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="C12" s="13">
-        <v>0.27777777777777801</v>
+        <v>0.26319999999999999</v>
       </c>
       <c r="D12" s="13">
-        <v>0.16666666666666699</v>
+        <v>0.21049999999999999</v>
       </c>
       <c r="E12" s="13">
-        <v>0.55555555555555602</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" ref="G12" si="6">C12*$A$2/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.24999999999999983</v>
+        <v>0.30005130056430618</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" ref="H12" si="7">D12*$A$6/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.50000000000000022</v>
+        <v>0.39995439949839451</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" ref="I12" si="8">E12*$A$4/(C12*$A$2+E12*$A$4+D12*$A$6)</f>
-        <v>0.24999999999999983</v>
+        <v>0.29999429993729931</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" si="9">SUM(G12:I12)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12" si="10">G12*I12</f>
-        <v>6.2499999999999917E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+        <v>9.0013679858065215E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="C13" s="13">
-        <v>0.29530000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D13" s="13">
-        <v>0.1171</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>0.58760000000000001</v>
+        <v>0.60609999999999997</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" ref="G13" si="11">C13*$A$2/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.30150086784875607</v>
+        <v>0.39997359910236946</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" ref="H13" si="12">D13*$A$6/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.39852976210734092</v>
+        <v>0.19998679955118473</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" ref="I13" si="13">E13*$A$4/(C13*$A$2+E13*$A$4+D13*$A$6)</f>
-        <v>0.29996937004390289</v>
+        <v>0.40003960134644573</v>
       </c>
       <c r="K13">
         <f t="shared" ref="K13" si="14">SUM(G13:I13)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13" si="15">G13*I13</f>
-        <v>9.0441025396281377E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.16000527913401499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="C14" s="8">
-        <v>0.317460317460317</v>
+        <v>0.31909999999999999</v>
       </c>
       <c r="D14" s="8">
-        <v>4.7619047619047998E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="E14" s="8">
-        <v>0.634920634920635</v>
+        <v>0.63829999999999998</v>
       </c>
       <c r="G14" s="9">
         <f>C14*$A$2/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.39999999999999891</v>
+        <v>0.44991187874515337</v>
       </c>
       <c r="H14" s="9">
         <f>D14*$A$6/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.20000000000000137</v>
+        <v>0.100105745505816</v>
       </c>
       <c r="I14" s="9">
         <f>E14*$A$4/(C14*$A$2+E14*$A$4+D14*$A$6)</f>
-        <v>0.39999999999999958</v>
+        <v>0.44998237574903072</v>
       </c>
       <c r="K14">
         <f>SUM(G14:I14)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f>G14*I14</f>
-        <v>0.15999999999999939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.20245241607545394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="C15" s="8">
         <v>0.32608695652173902</v>
       </c>
@@ -965,15 +964,15 @@
       </c>
       <c r="G15" s="9">
         <f>C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.44999999999999918</v>
+        <v>0.47368421052631532</v>
       </c>
       <c r="H15" s="9">
         <f>D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.10000000000000164</v>
+        <v>5.2631578947369334E-2</v>
       </c>
       <c r="I15" s="9">
         <f>E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.44999999999999918</v>
+        <v>0.47368421052631532</v>
       </c>
       <c r="K15">
         <f>SUM(G15:I15)</f>
@@ -981,10 +980,10 @@
       </c>
       <c r="L15">
         <f>G15*I15</f>
-        <v>0.20249999999999926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0.22437673130193861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="C16" s="8">
         <v>0.32986111111111099</v>
       </c>
@@ -996,15 +995,15 @@
       </c>
       <c r="G16" s="9">
         <f>C16*$A$2/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.47499999999999926</v>
+        <v>0.48717948717948678</v>
       </c>
       <c r="H16" s="9">
         <f>D16*$A$6/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>5.0000000000001529E-2</v>
+        <v>2.5641025641026445E-2</v>
       </c>
       <c r="I16" s="9">
         <f>E16*$A$4/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.47499999999999926</v>
+        <v>0.48717948717948678</v>
       </c>
       <c r="K16">
         <f>SUM(G16:I16)</f>
@@ -1012,10 +1011,10 @@
       </c>
       <c r="L16">
         <f>G16*I16</f>
-        <v>0.2256249999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.23734385272846772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1023,7 +1022,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1031,7 +1030,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1039,7 +1038,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -1054,7 +1053,7 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1073,26 +1072,36 @@
       <c r="I23" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="8">
+        <f>E12+D12</f>
+        <v>0.73680000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="D26" s="8">
+        <f>E13+D13</f>
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="Q27" s="8">
         <f>E12+D12</f>
-        <v>0.72222222222222299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.73680000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="O28">
         <f>6971+365</f>
         <v>7336</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="14:14">
       <c r="N34" s="8">
         <f>D15+E15</f>
         <v>0.67391304347826109</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="14:14">
       <c r="N37">
         <f>5876+1171</f>
         <v>7047</v>
@@ -1105,29 +1114,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC122C4E-863B-2A49-A795-0C5CF5293EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.1640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>90</v>
       </c>
@@ -1170,7 +1179,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1190,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1192,7 +1201,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1201,28 +1210,28 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8">
-        <f t="shared" ref="E2:E9" si="0">1-C5</f>
+        <f t="shared" ref="E5" si="0">1-C5</f>
         <v>0.75</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" ref="G2:G9" si="1">C5*$A$2/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
+        <f t="shared" ref="G5" si="1">C5*$A$2/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9">
-        <f t="shared" ref="I2:I9" si="2">E5*$A$4/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
+        <f t="shared" ref="I5" si="2">E5*$A$4/(C5*$A$2+E5*$A$4+D5*$A$6)</f>
         <v>0.5</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K2:K6" si="3">SUM(G5:I5)</f>
+        <f t="shared" ref="K5" si="3">SUM(G5:I5)</f>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L2:L6" si="4">G5*I5</f>
+        <f t="shared" ref="L5" si="4">G5*I5</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>200</v>
       </c>
@@ -1233,7 +1242,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1241,7 +1250,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1249,7 +1258,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1257,7 +1266,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1265,7 +1274,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="10" customFormat="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1274,7 +1283,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="C12" s="13">
         <v>0.27777777777777801</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>7.4074074074074001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="C13" s="13">
         <v>0.29530000000000001</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>0.10244586694729074</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="C14" s="8">
         <v>0.317460317460317</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>0.16666666666666621</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="C15" s="8">
         <v>0.32608695652173902</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>0.20241566014160703</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="C16" s="8">
         <v>0.32986111111111099</v>
       </c>
@@ -1429,7 +1438,7 @@
         <v>0.22099785736149316</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1437,7 +1446,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1445,7 +1454,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1453,7 +1462,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -1468,7 +1477,7 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1488,25 +1497,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="Q27" s="8">
         <f>E12+D12</f>
         <v>0.72222222222222299</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="O28">
         <f>6971+365</f>
         <v>7336</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="14:14">
       <c r="N34" s="8">
         <f>D15+E15</f>
         <v>0.67391304347826109</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="14:14">
       <c r="N37">
         <f>5876+1171</f>
         <v>7047</v>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -586,8 +586,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="C5:E5 C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -966,25 +966,25 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="n">
-        <v>0.326086956521739</v>
+        <v>0.2381</v>
       </c>
       <c r="D15" s="9" t="n">
-        <v>0.021739130434783</v>
+        <v>0.2857</v>
       </c>
       <c r="E15" s="9" t="n">
-        <v>0.652173913043478</v>
+        <v>0.4762</v>
       </c>
       <c r="G15" s="8" t="n">
         <f aca="false">C15*$A$2/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.473684210526315</v>
+        <v>0.250008750131252</v>
       </c>
       <c r="H15" s="8" t="n">
         <f aca="false">D15*$A$6/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.0526315789473693</v>
+        <v>0.499982499737496</v>
       </c>
       <c r="I15" s="8" t="n">
         <f aca="false">E15*$A$4/(C15*$A$2+E15*$A$4+D15*$A$6)</f>
-        <v>0.473684210526315</v>
+        <v>0.250008750131252</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">SUM(G15:I15)</f>
@@ -992,7 +992,7 @@
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">G15*I15</f>
-        <v>0.224376731301939</v>
+        <v>0.0625043751421908</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1107,20 @@
         <v>7336</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0" t="n">
+        <f aca="false">6383+426</f>
+        <v>6809</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="n">
+        <f aca="false">2857+4762</f>
+        <v>7619</v>
+      </c>
       <c r="N34" s="9" t="n">
         <f aca="false">D15+E15</f>
-        <v>0.673913043478261</v>
+        <v>0.7619</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,7 +1148,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="C5:E5 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1563,8 +1573,8 @@
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/transitions_to_real_P.xlsx
+++ b/transitions_to_real_P.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,25 +997,25 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="9" t="n">
-        <v>0.329861111111111</v>
+        <v>0.284552845528455</v>
       </c>
       <c r="D16" s="9" t="n">
-        <v>0.010416666666667</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>0.659722222222222</v>
+        <v>0.569105691056911</v>
       </c>
       <c r="G16" s="8" t="n">
         <f aca="false">C16*$A$2/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.487179487179487</v>
+        <v>0.35</v>
       </c>
       <c r="H16" s="8" t="n">
         <f aca="false">D16*$A$6/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.0256410256410264</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="8" t="n">
         <f aca="false">E16*$A$4/(C16*$A$2+E16*$A$4+D16*$A$6)</f>
-        <v>0.487179487179487</v>
+        <v>0.35</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">SUM(G16:I16)</f>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">G16*I16</f>
-        <v>0.237343852728468</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,6 +1111,10 @@
       <c r="E30" s="0" t="n">
         <f aca="false">6383+426</f>
         <v>6809</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">5691+1465</f>
+        <v>7156</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
